--- a/firstdemo/jieKouDemo/shiZhanDemo/datas/apicases.xlsx
+++ b/firstdemo/jieKouDemo/shiZhanDemo/datas/apicases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
   <si>
     <t>case_id</t>
   </si>
@@ -154,6 +154,90 @@
   </si>
   <si>
     <t>{"code":2,"msg":"类型错误"}</t>
+  </si>
+  <si>
+    <t>top_up</t>
+  </si>
+  <si>
+    <t>充值成功</t>
+  </si>
+  <si>
+    <r>
+      <t>/member/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recharge</t>
+    </r>
+  </si>
+  <si>
+    <t>{"member_id":"533","amount":"1"}</t>
+  </si>
+  <si>
+    <t>id错误</t>
+  </si>
+  <si>
+    <t>/member/recharge</t>
+  </si>
+  <si>
+    <t>{"member_id":"11111111","amount":"1"}</t>
+  </si>
+  <si>
+    <t>{"code": 0, "msg": "会员不存在"}</t>
+  </si>
+  <si>
+    <t>不输入id</t>
+  </si>
+  <si>
+    <t>{"amount":"1"}</t>
+  </si>
+  <si>
+    <t>不输入金额</t>
+  </si>
+  <si>
+    <t>{"member_id":"533"}</t>
+  </si>
+  <si>
+    <t>{"code": 0, "msg": "余额为空"}</t>
+  </si>
+  <si>
+    <t>重置金额为负数</t>
+  </si>
+  <si>
+    <t>{"member_id":"533","amount":"-1"}</t>
+  </si>
+  <si>
+    <t>{"code": 0, "msg": "余额必须大于0并且小于或者等于500000"}</t>
+  </si>
+  <si>
+    <t>重置金额外500001</t>
+  </si>
+  <si>
+    <t>{"member_id":"533","amount":"500001"}</t>
+  </si>
+  <si>
+    <t>重置金额非数字</t>
+  </si>
+  <si>
+    <t>{"member_id":"533","amount":"a"}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"数字格式化异常"}</t>
+  </si>
+  <si>
+    <t>重置金额小数点3位</t>
+  </si>
+  <si>
+    <t>{"member_id":"533","amount":"1.111"}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"余额小数超过两位"}</t>
   </si>
 </sst>
 </file>
@@ -161,12 +245,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,7 +276,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,8 +304,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,6 +324,37 @@
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,14 +374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -252,14 +383,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,38 +396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -321,9 +412,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -336,187 +427,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +618,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -546,16 +661,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,39 +695,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,145 +724,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,8 +1197,8 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1476,14 +1567,257 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="22.3833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="58" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="5:6">
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="5:6">
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="5:6">
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="5:6">
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="5:6">
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="/member/recharge"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/firstdemo/jieKouDemo/shiZhanDemo/datas/apicases.xlsx
+++ b/firstdemo/jieKouDemo/shiZhanDemo/datas/apicases.xlsx
@@ -163,6 +163,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>/member/</t>
     </r>
     <r>
@@ -247,8 +255,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -268,9 +276,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,6 +349,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -290,119 +404,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +413,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -427,19 +435,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,7 +579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,55 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,91 +615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,6 +626,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -636,26 +659,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,17 +707,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,27 +726,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -736,133 +744,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1567,10 +1575,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A10" sqref="$A10:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1794,26 +1802,6 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="5:6">
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="5:6">
-      <c r="E11" s="4"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="5:6">
-      <c r="E12" s="4"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="5:6">
-      <c r="E13" s="4"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="5:6">
-      <c r="E14" s="4"/>
-      <c r="F14" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="/member/recharge"/>

--- a/firstdemo/jieKouDemo/shiZhanDemo/datas/apicases.xlsx
+++ b/firstdemo/jieKouDemo/shiZhanDemo/datas/apicases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <t>/member/register</t>
   </si>
   <si>
-    <t>{"mobile_phone":"13921840188","pwd":"12345678","type":1,"reg_name":"34254sdfs"}</t>
+    <t>{"mobile_phone":"#mobile#","pwd":"12345678","type":1,"reg_name":"34254sdfs"}</t>
   </si>
   <si>
     <t>{"code": 0, "msg": "OK"}</t>
@@ -185,7 +185,7 @@
     </r>
   </si>
   <si>
-    <t>{"member_id":"533","amount":"1"}</t>
+    <t>{"member_id":"#member_id#","amount":"1"}</t>
   </si>
   <si>
     <t>id错误</t>
@@ -253,10 +253,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -289,13 +289,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -312,16 +305,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,29 +342,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -364,6 +350,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -373,18 +382,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,11 +397,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,7 +413,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,6 +435,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,175 +549,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,6 +683,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -701,8 +710,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,25 +726,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -744,133 +744,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,8 +1205,8 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1577,8 +1577,8 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/firstdemo/jieKouDemo/shiZhanDemo/datas/apicases.xlsx
+++ b/firstdemo/jieKouDemo/shiZhanDemo/datas/apicases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
   <si>
     <t>case_id</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>check_sql</t>
   </si>
   <si>
     <t>register</t>
@@ -254,8 +257,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -276,16 +279,109 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,98 +393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -404,9 +408,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,187 +438,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,17 +632,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,6 +691,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -715,27 +729,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -744,133 +747,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,13 +1206,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="22.3833333333333" style="1" customWidth="1"/>
@@ -1220,7 +1223,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1245,51 +1248,60 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
+      <c r="I3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1297,22 +1309,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1320,22 +1332,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1343,22 +1355,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1366,22 +1378,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1389,22 +1401,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1412,22 +1424,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1435,22 +1447,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1458,22 +1470,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
@@ -1481,22 +1493,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1504,22 +1516,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1527,22 +1539,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1623,22 +1635,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
@@ -1646,22 +1658,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
@@ -1669,22 +1681,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -1692,22 +1704,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
@@ -1715,22 +1727,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
@@ -1738,22 +1750,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
@@ -1761,22 +1773,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:7">
@@ -1784,22 +1796,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/firstdemo/jieKouDemo/shiZhanDemo/datas/apicases.xlsx
+++ b/firstdemo/jieKouDemo/shiZhanDemo/datas/apicases.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" r:id="rId3"/>
+    <sheet name="add" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="72">
   <si>
     <t>case_id</t>
   </si>
@@ -250,16 +251,31 @@
   <si>
     <t>{"code":2,"msg":"余额小数超过两位"}</t>
   </si>
+  <si>
+    <r>
+      <t>/member/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -279,7 +295,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,6 +313,58 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,51 +378,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -377,6 +408,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -385,29 +431,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -416,13 +439,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -438,43 +454,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,133 +622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,13 +648,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,6 +674,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,23 +716,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,8 +740,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,145 +751,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,7 +1224,7 @@
   <sheetPr/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1590,7 +1606,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B12" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1821,4 +1837,250 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="22.3833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="58" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="/member/add"/>
+    <hyperlink ref="E3" r:id="rId1" display="/member/add"/>
+    <hyperlink ref="E4" r:id="rId1" display="/member/add"/>
+    <hyperlink ref="E5" r:id="rId1" display="/member/add"/>
+    <hyperlink ref="E6" r:id="rId1" display="/member/add"/>
+    <hyperlink ref="E7" r:id="rId1" display="/member/add"/>
+    <hyperlink ref="E8" r:id="rId1" display="/member/add"/>
+    <hyperlink ref="E9" r:id="rId1" display="/member/add"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>